--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value516.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value516.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.157227866148663</v>
+        <v>1.258144974708557</v>
       </c>
       <c r="B1">
-        <v>2.032314476100852</v>
+        <v>2.540671586990356</v>
       </c>
       <c r="C1">
-        <v>2.453330560866005</v>
+        <v>3.844839096069336</v>
       </c>
       <c r="D1">
-        <v>2.577924491600078</v>
+        <v>2.769141674041748</v>
       </c>
       <c r="E1">
-        <v>0.7848689852330246</v>
+        <v>1.07072114944458</v>
       </c>
     </row>
   </sheetData>
